--- a/2017/ML/roc/roc_ann.xlsx
+++ b/2017/ML/roc/roc_ann.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_te\PycharmProjects\DDoS_Detection\2017\ML\roc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2E52BDFE-E55B-470C-8126-E0D4A65969B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D2DE0-4364-47B0-9EF4-58B382404D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="Report" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
   <si>
     <t>Time(s)</t>
   </si>
@@ -145,15 +144,33 @@
   <si>
     <t xml:space="preserve"> 0:01:19,365789</t>
   </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Taxa de Acerto</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Quant, de Ataques2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +183,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -198,24 +223,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -226,6 +383,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EBBA838-1C4D-43CA-8A9A-ACADD902411B}" name="Tabela1" displayName="Tabela1" ref="A1:Q10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:Q10" xr:uid="{6EBBA838-1C4D-43CA-8A9A-ACADD902411B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q10">
+    <sortCondition ref="O1:O10"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{1E32EEA0-047E-49FC-BB87-356C0A00CCD9}" name="Coluna1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{196EC67A-7C7B-4972-B3F3-493A3393F0BF}" name="Time(s)" dataDxfId="12">
+      <calculatedColumnFormula>AVERAGE('Test 0'!B2,'Test 1'!B2,'Test 2'!B2,'Test 3'!B2,'Test 4'!B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C88C1D9B-12F7-4BCA-828B-A91C5F80351F}" name="Architecture"/>
+    <tableColumn id="4" xr3:uid="{8BC9B27E-5D58-491F-A09C-0DDE3A020F20}" name="Alpha" dataDxfId="11">
+      <calculatedColumnFormula>AVERAGE('Test 0'!D2,'Test 1'!D2,'Test 2'!D2,'Test 3'!D2,'Test 4'!D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B1915ADB-62F8-4FE0-900E-1834BAF12363}" name="Quant, de Ataques" dataDxfId="10">
+      <calculatedColumnFormula>AVERAGE('Test 0'!E2,'Test 1'!E2,'Test 2'!E2,'Test 3'!E2,'Test 4'!E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{BF84D420-BC46-46DD-9758-BD076A66C07A}" name="Quant, de Ataques2" dataDxfId="9">
+      <calculatedColumnFormula>AVERAGE('Test 0'!F2,'Test 1'!F2,'Test 2'!F2,'Test 3'!F2,'Test 4'!F2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7681835A-2383-47C1-BF82-D02176B4067E}" name="Quant, Ataques Total" dataDxfId="8">
+      <calculatedColumnFormula>AVERAGE('Test 0'!G2,'Test 1'!G2,'Test 2'!G2,'Test 3'!G2,'Test 4'!G2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{91A0465C-4CDF-4AF4-8ECA-8AD5B6614CB9}" name="Acertos" dataDxfId="7">
+      <calculatedColumnFormula>AVERAGE('Test 0'!H2,'Test 1'!H2,'Test 2'!H2,'Test 3'!H2,'Test 4'!H2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CBD457B6-BD2B-4974-AF2D-C491BF0C4A23}" name="Verd-Pos" dataDxfId="6">
+      <calculatedColumnFormula>AVERAGE('Test 0'!I2,'Test 1'!I2,'Test 2'!I2,'Test 3'!I2,'Test 4'!I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5D0B2ED3-4F1D-47EB-BA51-6E91E4ED79AD}" name="Verd-Neg" dataDxfId="5">
+      <calculatedColumnFormula>AVERAGE('Test 0'!J2,'Test 1'!J2,'Test 2'!J2,'Test 3'!J2,'Test 4'!J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{9BB1E15C-45F7-4C12-B332-435F8F06FD98}" name="Erros" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE('Test 0'!K2,'Test 1'!K2,'Test 2'!K2,'Test 3'!K2,'Test 4'!K2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{0DB76F0F-7E8F-4362-92F4-A736C7098CEA}" name="Falso-Pos" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE('Test 0'!L2,'Test 1'!L2,'Test 2'!L2,'Test 3'!L2,'Test 4'!L2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{C56DB6D3-DA35-43A1-BD8D-781A648BE295}" name="Falso-Neg" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE('Test 0'!M2,'Test 1'!M2,'Test 2'!M2,'Test 3'!M2,'Test 4'!M2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{0F4D0F63-10E0-4118-9C17-9C0F1D1F0913}" name="Taxa de Acerto" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{6C70026A-6447-4460-9DA5-F629286E8BF8}" name="F1">
+      <calculatedColumnFormula>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{F5D91C12-52ED-407F-ADF6-FEAE35AC8769}" name="Recall">
+      <calculatedColumnFormula>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!P2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{6702D54C-34B7-4CAA-ABD1-4D3EE04A46C8}" name="Precision">
+      <calculatedColumnFormula>AVERAGE('Test 0'!Q2,'Test 1'!Q2,'Test 2'!Q2,'Test 3'!Q2,'Test 4'!Q2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,15 +729,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +777,17 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -605,8 +830,20 @@
       <c r="N2">
         <v>0.99711696678949602</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>99.74537207607726</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>99.513980216135863</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>99.977842517746495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -649,8 +886,20 @@
       <c r="N3">
         <v>0.99884585969547302</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>99.8982173733542</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>99.813760486183156</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>99.982817307062902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -693,8 +942,20 @@
       <c r="N4">
         <v>0.99616213585482805</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>99.660872556889856</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>99.380018460583386</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>99.943318574256779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -737,8 +998,20 @@
       <c r="N5">
         <v>0.99225938028691196</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>99.322432750436164</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>99.981212680623742</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>98.672277443227159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -781,8 +1054,20 @@
       <c r="N6">
         <v>0.99305198266471995</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>99.391078631693972</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>99.929751762332245</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>98.858181818181819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -825,8 +1110,20 @@
       <c r="N7">
         <v>0.99144823750260702</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>99.251882458366964</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>99.970593760976286</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>98.54343135044607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -869,8 +1166,20 @@
       <c r="N8">
         <v>0.98103316415212405</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>98.355953041004753</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>99.983663200542381</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>96.780391381695992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -913,8 +1222,20 @@
       <c r="N9">
         <v>0.98298917703770605</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>98.522960518372443</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>99.981212680623742</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>97.106634826691632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -956,6 +1277,18 @@
       </c>
       <c r="N10">
         <v>0.97934598716076804</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>98.212337120482701</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>99.984480040515265</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>96.501919726271467</v>
       </c>
     </row>
   </sheetData>
@@ -965,15 +1298,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="Q2" sqref="Q2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1346,17 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1057,8 +1399,20 @@
       <c r="N2">
         <v>0.99245405455514601</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>99.330366324171806</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>98.677704861763772</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>99.991718769409133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1101,8 +1455,20 @@
       <c r="N3">
         <v>0.99564763957449698</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>99.614856135025946</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>99.239966329691171</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>99.992589054857461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1145,8 +1511,20 @@
       <c r="N4">
         <v>0.99320957611995597</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>99.397800842667763</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>98.808463342677115</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>99.994210665608051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1189,8 +1567,20 @@
       <c r="N5">
         <v>0.99432200050986097</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>99.501742883058043</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>99.961589696231698</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>99.046107503198542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1233,8 +1623,20 @@
       <c r="N6">
         <v>0.99298245614034997</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>99.38505779806826</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>99.984472430391534</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>98.792787409459052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1277,8 +1679,20 @@
       <c r="N7">
         <v>0.99219912396579202</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>99.316856158239332</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>99.980386227862994</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>98.662075194761201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1321,8 +1735,20 @@
       <c r="N8">
         <v>0.98489883890704299</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>98.685972412680485</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>99.982020708874416</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>97.423094993509963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1365,8 +1791,20 @@
       <c r="N9">
         <v>0.98285475909059306</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>98.510803618517727</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>97.079174138669799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1408,6 +1846,18 @@
       </c>
       <c r="N10">
         <v>0.97927182553477399</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>98.205183776017208</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>99.985289670897245</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>96.487354001214527</v>
       </c>
     </row>
   </sheetData>
@@ -1417,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="P2" sqref="P2:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1878,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,8 +1918,17 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1512,8 +1971,20 @@
       <c r="N2">
         <v>0.98866717652784497</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>98.991215945802097</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>98.008186207629024</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>99.994165207968663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1556,8 +2027,20 @@
       <c r="N3">
         <v>0.99152239912859996</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>99.247266247155125</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>98.508999109484407</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>99.996682700281966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1600,8 +2083,20 @@
       <c r="N4">
         <v>0.99898491274421097</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>99.910511798958012</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>99.879085955180102</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>99.941957424544654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1644,8 +2139,20 @@
       <c r="N5">
         <v>0.99344133120118605</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>99.425130919831147</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>99.969771488795033</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>98.886392655686834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1688,8 +2195,20 @@
       <c r="N6">
         <v>0.99074833715729205</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>99.184853633037122</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>99.209973774724062</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>99.159746209059065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1732,8 +2251,20 @@
       <c r="N7">
         <v>0.99190247746181803</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>99.291240511669983</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>99.974673409530965</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>98.617088148542138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1776,8 +2307,20 @@
       <c r="N8">
         <v>0.98376787411063904</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>98.589348006477238</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>99.979575330266911</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>97.237252985626085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1820,8 +2363,20 @@
       <c r="N9">
         <v>0.98127882453822801</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>98.376627291471564</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>96.819670574832671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1863,6 +2418,18 @@
       </c>
       <c r="N10">
         <v>0.98068089642865397</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>98.325647164687553</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>99.984477251002858</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>96.720961661569106</v>
       </c>
     </row>
   </sheetData>
@@ -1872,15 +2439,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="P2" sqref="P2:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,8 +2490,17 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1964,8 +2543,20 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f t="shared" ref="O2:O10" si="0">I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>99.97508180113644</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>99.96977297050006</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>99.980391195646845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2008,8 +2599,20 @@
       <c r="N3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>99.964057866834395</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>99.973857704216258</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>99.954259950502731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2052,8 +2655,20 @@
       <c r="N4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>99.969775686582039</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>99.978759384675712</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>99.960793602822861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2096,8 +2711,20 @@
       <c r="N5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>99.50512965440403</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>99.955884875864939</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>99.058421581009753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2140,8 +2767,20 @@
       <c r="N6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>99.426445260455594</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>99.982844118391924</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>98.876204787642294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2184,8 +2823,20 @@
       <c r="N7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>99.27395148860225</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>99.973857704216258</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>98.583777077811703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2228,8 +2879,20 @@
       <c r="N8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>98.658196929451549</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>99.982027171648681</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>97.368965407504064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2272,8 +2935,20 @@
       <c r="N9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>98.468928008238663</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>96.997868074213201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2315,6 +2990,18 @@
       </c>
       <c r="N10" t="s">
         <v>24</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>98.256670453313859</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>99.985294958621651</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>96.586801774073905</v>
       </c>
     </row>
   </sheetData>
@@ -2324,15 +3011,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2372,8 +3059,17 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2416,8 +3112,20 @@
       <c r="N2">
         <v>0.99935108577255505</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>99.942801111292695</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>99.975478175576256</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>99.910145401078253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2460,8 +3168,20 @@
       <c r="N3">
         <v>0.999276924146561</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>99.936249509611613</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>99.946051986267776</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>99.926448955575168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2504,8 +3224,20 @@
       <c r="N4">
         <v>0.999156411504322</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>99.925653594771248</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>99.97466078142881</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>99.876694430834561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2548,8 +3280,20 @@
       <c r="N5">
         <v>0.99011796333634605</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>99.136065613628446</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>98.300358411417733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2592,8 +3336,20 @@
       <c r="N6">
         <v>0.99101717305151904</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>99.214060928527402</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>98.453848878014227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2636,8 +3392,20 @@
       <c r="N7">
         <v>0.99001135599898005</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>99.126826876714432</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>98.282192815420089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2680,8 +3448,20 @@
       <c r="N8">
         <v>0.97883612598206204</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>98.167824984350673</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>96.414496500409868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2724,8 +3504,20 @@
       <c r="N9">
         <v>0.98087093559526295</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>98.341057912233239</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>96.749266409877166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2767,6 +3559,18 @@
       </c>
       <c r="N10">
         <v>0.97658810169412902</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>97.97714830374413</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>99.986104299493221</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>96.047331516917012</v>
       </c>
     </row>
   </sheetData>
@@ -2776,15 +3580,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +3620,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -2822,234 +3644,291 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
-        <f>AVERAGE('Test 0'!B2,'Test 1'!B2,'Test 2'!B2,'Test 3'!B2,'Test 4'!B2)</f>
-        <v>1.0053964120370371E-3</v>
+        <f>AVERAGE('Test 0'!B10,'Test 1'!B10,'Test 2'!B10,'Test 3'!B10,'Test 4'!B10)</f>
+        <v>8.9264467592592585E-4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE('Test 0'!D2,'Test 1'!D2,'Test 2'!D2,'Test 3'!D2,'Test 4'!D2)</f>
-        <v>1E-3</v>
+        <f>AVERAGE('Test 0'!D10,'Test 1'!D10,'Test 2'!D10,'Test 3'!D10,'Test 4'!D10)</f>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE('Test 0'!E2,'Test 1'!E2,'Test 2'!E2,'Test 3'!E2,'Test 4'!E2)</f>
+        <f>AVERAGE('Test 0'!E10,'Test 1'!E10,'Test 2'!E10,'Test 3'!E10,'Test 4'!E10)</f>
         <v>122386.8</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE('Test 0'!F2,'Test 1'!F2,'Test 2'!F2,'Test 3'!F2,'Test 4'!F2)</f>
+        <f>AVERAGE('Test 0'!F10,'Test 1'!F10,'Test 2'!F10,'Test 3'!F10,'Test 4'!F10)</f>
         <v>5640.2</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE('Test 0'!G2,'Test 1'!G2,'Test 2'!G2,'Test 3'!G2,'Test 4'!G2)</f>
+        <f>AVERAGE('Test 0'!G10,'Test 1'!G10,'Test 2'!G10,'Test 3'!G10,'Test 4'!G10)</f>
         <v>128027</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE('Test 0'!H2,'Test 1'!H2,'Test 2'!H2,'Test 3'!H2,'Test 4'!H2)</f>
-        <v>214765.8</v>
+        <f>AVERAGE('Test 0'!H10,'Test 1'!H10,'Test 2'!H10,'Test 3'!H10,'Test 4'!H10)</f>
+        <v>211247</v>
       </c>
       <c r="I2" s="2">
-        <f>AVERAGE('Test 0'!I2,'Test 1'!I2,'Test 2'!I2,'Test 3'!I2,'Test 4'!I2)</f>
-        <v>121443.2</v>
+        <f>AVERAGE('Test 0'!I10,'Test 1'!I10,'Test 2'!I10,'Test 3'!I10,'Test 4'!I10)</f>
+        <v>122368.6</v>
       </c>
       <c r="J2" s="2">
-        <f>AVERAGE('Test 0'!J2,'Test 1'!J2,'Test 2'!J2,'Test 3'!J2,'Test 4'!J2)</f>
-        <v>93322.6</v>
+        <f>AVERAGE('Test 0'!J10,'Test 1'!J10,'Test 2'!J10,'Test 3'!J10,'Test 4'!J10)</f>
+        <v>88878.399999999994</v>
       </c>
       <c r="K2" s="2">
-        <f>AVERAGE('Test 0'!K2,'Test 1'!K2,'Test 2'!K2,'Test 3'!K2,'Test 4'!K2)</f>
-        <v>979.2</v>
+        <f>AVERAGE('Test 0'!K10,'Test 1'!K10,'Test 2'!K10,'Test 3'!K10,'Test 4'!K10)</f>
+        <v>4498</v>
       </c>
       <c r="L2" s="2">
-        <f>AVERAGE('Test 0'!L2,'Test 1'!L2,'Test 2'!L2,'Test 3'!L2,'Test 4'!L2)</f>
-        <v>35.6</v>
+        <f>AVERAGE('Test 0'!L10,'Test 1'!L10,'Test 2'!L10,'Test 3'!L10,'Test 4'!L10)</f>
+        <v>4479.8</v>
       </c>
       <c r="M2" s="2">
-        <f>AVERAGE('Test 0'!M2,'Test 1'!M2,'Test 2'!M2,'Test 3'!M2,'Test 4'!M2)</f>
-        <v>943.6</v>
+        <f>AVERAGE('Test 0'!M10,'Test 1'!M10,'Test 2'!M10,'Test 3'!M10,'Test 4'!M10)</f>
+        <v>18.2</v>
       </c>
       <c r="N2" s="2">
-        <f>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)</f>
-        <v>0.99439732091126054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!N10,'Test 1'!N10,'Test 2'!N10,'Test 3'!N10,'Test 4'!N10)*100</f>
+        <v>97.897170270458119</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE('Test 0'!O10,'Test 1'!O10,'Test 2'!O10,'Test 3'!O10,'Test 4'!O10)</f>
+        <v>98.195397363649093</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE('Test 0'!P10,'Test 1'!P10,'Test 2'!P10,'Test 3'!P10,'Test 4'!P10)</f>
+        <v>99.985129244106048</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE('Test 0'!Q10,'Test 1'!Q10,'Test 2'!Q10,'Test 3'!Q10,'Test 4'!Q10)</f>
+        <v>96.468873736009215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
-        <f>AVERAGE('Test 0'!B3,'Test 1'!B3,'Test 2'!B3,'Test 3'!B3,'Test 4'!B3)</f>
-        <v>9.5875578703703704E-4</v>
+        <f>AVERAGE('Test 0'!B9,'Test 1'!B9,'Test 2'!B9,'Test 3'!B9,'Test 4'!B9)</f>
+        <v>9.8525462962962954E-4</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2">
-        <f>AVERAGE('Test 0'!D3,'Test 1'!D3,'Test 2'!D3,'Test 3'!D3,'Test 4'!D3)</f>
-        <v>1E-3</v>
+        <f>AVERAGE('Test 0'!D9,'Test 1'!D9,'Test 2'!D9,'Test 3'!D9,'Test 4'!D9)</f>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f>AVERAGE('Test 0'!E3,'Test 1'!E3,'Test 2'!E3,'Test 3'!E3,'Test 4'!E3)</f>
+        <f>AVERAGE('Test 0'!E9,'Test 1'!E9,'Test 2'!E9,'Test 3'!E9,'Test 4'!E9)</f>
         <v>122386.8</v>
       </c>
       <c r="F3" s="2">
-        <f>AVERAGE('Test 0'!F3,'Test 1'!F3,'Test 2'!F3,'Test 3'!F3,'Test 4'!F3)</f>
+        <f>AVERAGE('Test 0'!F9,'Test 1'!F9,'Test 2'!F9,'Test 3'!F9,'Test 4'!F9)</f>
         <v>5640.2</v>
       </c>
       <c r="G3" s="2">
-        <f>AVERAGE('Test 0'!G3,'Test 1'!G3,'Test 2'!G3,'Test 3'!G3,'Test 4'!G3)</f>
+        <f>AVERAGE('Test 0'!G9,'Test 1'!G9,'Test 2'!G9,'Test 3'!G9,'Test 4'!G9)</f>
         <v>128027</v>
       </c>
       <c r="H3" s="2">
-        <f>AVERAGE('Test 0'!H3,'Test 1'!H3,'Test 2'!H3,'Test 3'!H3,'Test 4'!H3)</f>
-        <v>215092.8</v>
+        <f>AVERAGE('Test 0'!H9,'Test 1'!H9,'Test 2'!H9,'Test 3'!H9,'Test 4'!H9)</f>
+        <v>211876.8</v>
       </c>
       <c r="I3" s="2">
-        <f>AVERAGE('Test 0'!I3,'Test 1'!I3,'Test 2'!I3,'Test 3'!I3,'Test 4'!I3)</f>
-        <v>121770.6</v>
+        <f>AVERAGE('Test 0'!I9,'Test 1'!I9,'Test 2'!I9,'Test 3'!I9,'Test 4'!I9)</f>
+        <v>122367.8</v>
       </c>
       <c r="J3" s="2">
-        <f>AVERAGE('Test 0'!J3,'Test 1'!J3,'Test 2'!J3,'Test 3'!J3,'Test 4'!J3)</f>
-        <v>93322.2</v>
+        <f>AVERAGE('Test 0'!J9,'Test 1'!J9,'Test 2'!J9,'Test 3'!J9,'Test 4'!J9)</f>
+        <v>89509</v>
       </c>
       <c r="K3" s="2">
-        <f>AVERAGE('Test 0'!K3,'Test 1'!K3,'Test 2'!K3,'Test 3'!K3,'Test 4'!K3)</f>
-        <v>652.20000000000005</v>
+        <f>AVERAGE('Test 0'!K9,'Test 1'!K9,'Test 2'!K9,'Test 3'!K9,'Test 4'!K9)</f>
+        <v>3868.2</v>
       </c>
       <c r="L3" s="2">
-        <f>AVERAGE('Test 0'!L3,'Test 1'!L3,'Test 2'!L3,'Test 3'!L3,'Test 4'!L3)</f>
-        <v>36</v>
+        <f>AVERAGE('Test 0'!L9,'Test 1'!L9,'Test 2'!L9,'Test 3'!L9,'Test 4'!L9)</f>
+        <v>3849.2</v>
       </c>
       <c r="M3" s="2">
-        <f>AVERAGE('Test 0'!M3,'Test 1'!M3,'Test 2'!M3,'Test 3'!M3,'Test 4'!M3)</f>
-        <v>616.20000000000005</v>
+        <f>AVERAGE('Test 0'!M9,'Test 1'!M9,'Test 2'!M9,'Test 3'!M9,'Test 4'!M9)</f>
+        <v>19</v>
       </c>
       <c r="N3" s="2">
-        <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)</f>
-        <v>0.99632320563628274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!N9,'Test 1'!N9,'Test 2'!N9,'Test 3'!N9,'Test 4'!N9)*100</f>
+        <v>98.199842406544761</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE('Test 0'!O9,'Test 1'!O9,'Test 2'!O9,'Test 3'!O9,'Test 4'!O9)</f>
+        <v>98.444075469766716</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE('Test 0'!P9,'Test 1'!P9,'Test 2'!P9,'Test 3'!P9,'Test 4'!P9)</f>
+        <v>99.984475772127738</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE('Test 0'!Q9,'Test 1'!Q9,'Test 2'!Q9,'Test 3'!Q9,'Test 4'!Q9)</f>
+        <v>96.950522804856902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
-        <f>AVERAGE('Test 0'!B4,'Test 1'!B4,'Test 2'!B4,'Test 3'!B4,'Test 4'!B4)</f>
-        <v>9.6283275462962956E-4</v>
+        <f>AVERAGE('Test 0'!B8,'Test 1'!B8,'Test 2'!B8,'Test 3'!B8,'Test 4'!B8)</f>
+        <v>1.0417997685185185E-3</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <f>AVERAGE('Test 0'!D8,'Test 1'!D8,'Test 2'!D8,'Test 3'!D8,'Test 4'!D8)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f>AVERAGE('Test 0'!E8,'Test 1'!E8,'Test 2'!E8,'Test 3'!E8,'Test 4'!E8)</f>
+        <v>122386.8</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE('Test 0'!F8,'Test 1'!F8,'Test 2'!F8,'Test 3'!F8,'Test 4'!F8)</f>
+        <v>5640.2</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE('Test 0'!G8,'Test 1'!G8,'Test 2'!G8,'Test 3'!G8,'Test 4'!G8)</f>
+        <v>128027</v>
+      </c>
+      <c r="H4" s="2">
+        <f>AVERAGE('Test 0'!H8,'Test 1'!H8,'Test 2'!H8,'Test 3'!H8,'Test 4'!H8)</f>
+        <v>211995.6</v>
+      </c>
+      <c r="I4" s="2">
+        <f>AVERAGE('Test 0'!I8,'Test 1'!I8,'Test 2'!I8,'Test 3'!I8,'Test 4'!I8)</f>
+        <v>122365.6</v>
+      </c>
+      <c r="J4" s="2">
+        <f>AVERAGE('Test 0'!J8,'Test 1'!J8,'Test 2'!J8,'Test 3'!J8,'Test 4'!J8)</f>
+        <v>89630</v>
+      </c>
+      <c r="K4" s="2">
+        <f>AVERAGE('Test 0'!K8,'Test 1'!K8,'Test 2'!K8,'Test 3'!K8,'Test 4'!K8)</f>
+        <v>3749.4</v>
+      </c>
+      <c r="L4" s="2">
+        <f>AVERAGE('Test 0'!L8,'Test 1'!L8,'Test 2'!L8,'Test 3'!L8,'Test 4'!L8)</f>
+        <v>3728.2</v>
+      </c>
+      <c r="M4" s="2">
+        <f>AVERAGE('Test 0'!M8,'Test 1'!M8,'Test 2'!M8,'Test 3'!M8,'Test 4'!M8)</f>
+        <v>21.2</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE('Test 0'!N8,'Test 1'!N8,'Test 2'!N8,'Test 3'!N8,'Test 4'!N8)*100</f>
+        <v>98.213400078796695</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE('Test 0'!O8,'Test 1'!O8,'Test 2'!O8,'Test 3'!O8,'Test 4'!O8)</f>
+        <v>98.491459074792928</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE('Test 0'!P8,'Test 1'!P8,'Test 2'!P8,'Test 3'!P8,'Test 4'!P8)</f>
+        <v>99.982678142165113</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE('Test 0'!Q8,'Test 1'!Q8,'Test 2'!Q8,'Test 3'!Q8,'Test 4'!Q8)</f>
+        <v>97.044840253749186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <f>AVERAGE('Test 0'!B7,'Test 1'!B7,'Test 2'!B7,'Test 3'!B7,'Test 4'!B7)</f>
+        <v>9.0400173611111106E-4</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <f>AVERAGE('Test 0'!D4,'Test 1'!D4,'Test 2'!D4,'Test 3'!D4,'Test 4'!D4)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <f>AVERAGE('Test 0'!E4,'Test 1'!E4,'Test 2'!E4,'Test 3'!E4,'Test 4'!E4)</f>
+      <c r="D5" s="2">
+        <f>AVERAGE('Test 0'!D7,'Test 1'!D7,'Test 2'!D7,'Test 3'!D7,'Test 4'!D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f>AVERAGE('Test 0'!E7,'Test 1'!E7,'Test 2'!E7,'Test 3'!E7,'Test 4'!E7)</f>
         <v>122386.8</v>
       </c>
-      <c r="F4" s="2">
-        <f>AVERAGE('Test 0'!F4,'Test 1'!F4,'Test 2'!F4,'Test 3'!F4,'Test 4'!F4)</f>
+      <c r="F5" s="2">
+        <f>AVERAGE('Test 0'!F7,'Test 1'!F7,'Test 2'!F7,'Test 3'!F7,'Test 4'!F7)</f>
         <v>5640.2</v>
       </c>
-      <c r="G4" s="2">
-        <f>AVERAGE('Test 0'!G4,'Test 1'!G4,'Test 2'!G4,'Test 3'!G4,'Test 4'!G4)</f>
-        <v>128027</v>
-      </c>
-      <c r="H4" s="2">
-        <f>AVERAGE('Test 0'!H4,'Test 1'!H4,'Test 2'!H4,'Test 3'!H4,'Test 4'!H4)</f>
-        <v>215191.4</v>
-      </c>
-      <c r="I4" s="2">
-        <f>AVERAGE('Test 0'!I4,'Test 1'!I4,'Test 2'!I4,'Test 3'!I4,'Test 4'!I4)</f>
-        <v>121902.39999999999</v>
-      </c>
-      <c r="J4" s="2">
-        <f>AVERAGE('Test 0'!J4,'Test 1'!J4,'Test 2'!J4,'Test 3'!J4,'Test 4'!J4)</f>
-        <v>93289</v>
-      </c>
-      <c r="K4" s="2">
-        <f>AVERAGE('Test 0'!K4,'Test 1'!K4,'Test 2'!K4,'Test 3'!K4,'Test 4'!K4)</f>
-        <v>553.6</v>
-      </c>
-      <c r="L4" s="2">
-        <f>AVERAGE('Test 0'!L4,'Test 1'!L4,'Test 2'!L4,'Test 3'!L4,'Test 4'!L4)</f>
-        <v>69.2</v>
-      </c>
-      <c r="M4" s="2">
-        <f>AVERAGE('Test 0'!M4,'Test 1'!M4,'Test 2'!M4,'Test 3'!M4,'Test 4'!M4)</f>
-        <v>484.4</v>
-      </c>
-      <c r="N4" s="2">
-        <f>AVERAGE('Test 0'!N4,'Test 1'!N4,'Test 2'!N4,'Test 3'!N4,'Test 4'!N4)</f>
-        <v>0.99687825905582927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <f>AVERAGE('Test 0'!B5,'Test 1'!B5,'Test 2'!B5,'Test 3'!B5,'Test 4'!B5)</f>
-        <v>1.0686660879629631E-3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <f>AVERAGE('Test 0'!D5,'Test 1'!D5,'Test 2'!D5,'Test 3'!D5,'Test 4'!D5)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <f>AVERAGE('Test 0'!E5,'Test 1'!E5,'Test 2'!E5,'Test 3'!E5,'Test 4'!E5)</f>
-        <v>122386.8</v>
-      </c>
-      <c r="F5" s="2">
-        <f>AVERAGE('Test 0'!F5,'Test 1'!F5,'Test 2'!F5,'Test 3'!F5,'Test 4'!F5)</f>
-        <v>5640.2</v>
-      </c>
       <c r="G5" s="2">
-        <f>AVERAGE('Test 0'!G5,'Test 1'!G5,'Test 2'!G5,'Test 3'!G5,'Test 4'!G5)</f>
+        <f>AVERAGE('Test 0'!G7,'Test 1'!G7,'Test 2'!G7,'Test 3'!G7,'Test 4'!G7)</f>
         <v>128027</v>
       </c>
       <c r="H5" s="2">
-        <f>AVERAGE('Test 0'!H5,'Test 1'!H5,'Test 2'!H5,'Test 3'!H5,'Test 4'!H5)</f>
-        <v>214213.2</v>
+        <f>AVERAGE('Test 0'!H7,'Test 1'!H7,'Test 2'!H7,'Test 3'!H7,'Test 4'!H7)</f>
+        <v>213901</v>
       </c>
       <c r="I5" s="2">
-        <f>AVERAGE('Test 0'!I5,'Test 1'!I5,'Test 2'!I5,'Test 3'!I5,'Test 4'!I5)</f>
-        <v>122351.2</v>
+        <f>AVERAGE('Test 0'!I7,'Test 1'!I7,'Test 2'!I7,'Test 3'!I7,'Test 4'!I7)</f>
+        <v>122358.8</v>
       </c>
       <c r="J5" s="2">
-        <f>AVERAGE('Test 0'!J5,'Test 1'!J5,'Test 2'!J5,'Test 3'!J5,'Test 4'!J5)</f>
-        <v>91862</v>
+        <f>AVERAGE('Test 0'!J7,'Test 1'!J7,'Test 2'!J7,'Test 3'!J7,'Test 4'!J7)</f>
+        <v>91542.2</v>
       </c>
       <c r="K5" s="2">
-        <f>AVERAGE('Test 0'!K5,'Test 1'!K5,'Test 2'!K5,'Test 3'!K5,'Test 4'!K5)</f>
-        <v>1531.8</v>
+        <f>AVERAGE('Test 0'!K7,'Test 1'!K7,'Test 2'!K7,'Test 3'!K7,'Test 4'!K7)</f>
+        <v>1844</v>
       </c>
       <c r="L5" s="2">
-        <f>AVERAGE('Test 0'!L5,'Test 1'!L5,'Test 2'!L5,'Test 3'!L5,'Test 4'!L5)</f>
-        <v>1496.2</v>
+        <f>AVERAGE('Test 0'!L7,'Test 1'!L7,'Test 2'!L7,'Test 3'!L7,'Test 4'!L7)</f>
+        <v>1816</v>
       </c>
       <c r="M5" s="2">
-        <f>AVERAGE('Test 0'!M5,'Test 1'!M5,'Test 2'!M5,'Test 3'!M5,'Test 4'!M5)</f>
-        <v>35.6</v>
+        <f>AVERAGE('Test 0'!M7,'Test 1'!M7,'Test 2'!M7,'Test 3'!M7,'Test 4'!M7)</f>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
-        <f>AVERAGE('Test 0'!N5,'Test 1'!N5,'Test 2'!N5,'Test 3'!N5,'Test 4'!N5)</f>
-        <v>0.99253516883357629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!N7,'Test 1'!N7,'Test 2'!N7,'Test 3'!N7,'Test 4'!N7)*100</f>
+        <v>99.13902987322993</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE('Test 0'!O7,'Test 1'!O7,'Test 2'!O7,'Test 3'!O7,'Test 4'!O7)</f>
+        <v>99.252151498718575</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE('Test 0'!P7,'Test 1'!P7,'Test 2'!P7,'Test 3'!P7,'Test 4'!P7)</f>
+        <v>99.977123080415936</v>
+      </c>
+      <c r="Q5">
+        <f>AVERAGE('Test 0'!Q7,'Test 1'!Q7,'Test 2'!Q7,'Test 3'!Q7,'Test 4'!Q7)</f>
+        <v>98.537712917396249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3101,233 +3980,296 @@
         <v>222</v>
       </c>
       <c r="N6" s="2">
-        <f>AVERAGE('Test 0'!N6,'Test 1'!N6,'Test 2'!N6,'Test 3'!N6,'Test 4'!N6)</f>
-        <v>0.99194998725347028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!N6,'Test 1'!N6,'Test 2'!N6,'Test 3'!N6,'Test 4'!N6)*100</f>
+        <v>99.194998725347034</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE('Test 0'!O6,'Test 1'!O6,'Test 2'!O6,'Test 3'!O6,'Test 4'!O6)</f>
+        <v>99.32029925035647</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE('Test 0'!P6,'Test 1'!P6,'Test 2'!P6,'Test 3'!P6,'Test 4'!P6)</f>
+        <v>99.818629277066606</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGE('Test 0'!Q6,'Test 1'!Q6,'Test 2'!Q6,'Test 3'!Q6,'Test 4'!Q6)</f>
+        <v>98.828153820471286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
-        <f>AVERAGE('Test 0'!B7,'Test 1'!B7,'Test 2'!B7,'Test 3'!B7,'Test 4'!B7)</f>
-        <v>9.0400173611111106E-4</v>
+        <f>AVERAGE('Test 0'!B5,'Test 1'!B5,'Test 2'!B5,'Test 3'!B5,'Test 4'!B5)</f>
+        <v>1.0686660879629631E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <f>AVERAGE('Test 0'!D7,'Test 1'!D7,'Test 2'!D7,'Test 3'!D7,'Test 4'!D7)</f>
+        <f>AVERAGE('Test 0'!D5,'Test 1'!D5,'Test 2'!D5,'Test 3'!D5,'Test 4'!D5)</f>
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f>AVERAGE('Test 0'!E7,'Test 1'!E7,'Test 2'!E7,'Test 3'!E7,'Test 4'!E7)</f>
+        <f>AVERAGE('Test 0'!E5,'Test 1'!E5,'Test 2'!E5,'Test 3'!E5,'Test 4'!E5)</f>
         <v>122386.8</v>
       </c>
       <c r="F7" s="2">
-        <f>AVERAGE('Test 0'!F7,'Test 1'!F7,'Test 2'!F7,'Test 3'!F7,'Test 4'!F7)</f>
+        <f>AVERAGE('Test 0'!F5,'Test 1'!F5,'Test 2'!F5,'Test 3'!F5,'Test 4'!F5)</f>
         <v>5640.2</v>
       </c>
       <c r="G7" s="2">
-        <f>AVERAGE('Test 0'!G7,'Test 1'!G7,'Test 2'!G7,'Test 3'!G7,'Test 4'!G7)</f>
+        <f>AVERAGE('Test 0'!G5,'Test 1'!G5,'Test 2'!G5,'Test 3'!G5,'Test 4'!G5)</f>
         <v>128027</v>
       </c>
       <c r="H7" s="2">
-        <f>AVERAGE('Test 0'!H7,'Test 1'!H7,'Test 2'!H7,'Test 3'!H7,'Test 4'!H7)</f>
-        <v>213901</v>
+        <f>AVERAGE('Test 0'!H5,'Test 1'!H5,'Test 2'!H5,'Test 3'!H5,'Test 4'!H5)</f>
+        <v>214213.2</v>
       </c>
       <c r="I7" s="2">
-        <f>AVERAGE('Test 0'!I7,'Test 1'!I7,'Test 2'!I7,'Test 3'!I7,'Test 4'!I7)</f>
-        <v>122358.8</v>
+        <f>AVERAGE('Test 0'!I5,'Test 1'!I5,'Test 2'!I5,'Test 3'!I5,'Test 4'!I5)</f>
+        <v>122351.2</v>
       </c>
       <c r="J7" s="2">
-        <f>AVERAGE('Test 0'!J7,'Test 1'!J7,'Test 2'!J7,'Test 3'!J7,'Test 4'!J7)</f>
-        <v>91542.2</v>
+        <f>AVERAGE('Test 0'!J5,'Test 1'!J5,'Test 2'!J5,'Test 3'!J5,'Test 4'!J5)</f>
+        <v>91862</v>
       </c>
       <c r="K7" s="2">
-        <f>AVERAGE('Test 0'!K7,'Test 1'!K7,'Test 2'!K7,'Test 3'!K7,'Test 4'!K7)</f>
-        <v>1844</v>
+        <f>AVERAGE('Test 0'!K5,'Test 1'!K5,'Test 2'!K5,'Test 3'!K5,'Test 4'!K5)</f>
+        <v>1531.8</v>
       </c>
       <c r="L7" s="2">
-        <f>AVERAGE('Test 0'!L7,'Test 1'!L7,'Test 2'!L7,'Test 3'!L7,'Test 4'!L7)</f>
-        <v>1816</v>
+        <f>AVERAGE('Test 0'!L5,'Test 1'!L5,'Test 2'!L5,'Test 3'!L5,'Test 4'!L5)</f>
+        <v>1496.2</v>
       </c>
       <c r="M7" s="2">
-        <f>AVERAGE('Test 0'!M7,'Test 1'!M7,'Test 2'!M7,'Test 3'!M7,'Test 4'!M7)</f>
-        <v>28</v>
+        <f>AVERAGE('Test 0'!M5,'Test 1'!M5,'Test 2'!M5,'Test 3'!M5,'Test 4'!M5)</f>
+        <v>35.6</v>
       </c>
       <c r="N7" s="2">
-        <f>AVERAGE('Test 0'!N7,'Test 1'!N7,'Test 2'!N7,'Test 3'!N7,'Test 4'!N7)</f>
-        <v>0.99139029873229934</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!N5,'Test 1'!N5,'Test 2'!N5,'Test 3'!N5,'Test 4'!N5)*100</f>
+        <v>99.253516883357634</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE('Test 0'!O5,'Test 1'!O5,'Test 2'!O5,'Test 3'!O5,'Test 4'!O5)</f>
+        <v>99.37810036427156</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE('Test 0'!P5,'Test 1'!P5,'Test 2'!P5,'Test 3'!P5,'Test 4'!P5)</f>
+        <v>99.970912608201715</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGE('Test 0'!Q5,'Test 1'!Q5,'Test 2'!Q5,'Test 3'!Q5,'Test 4'!Q5)</f>
+        <v>98.792711518908007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4">
-        <f>AVERAGE('Test 0'!B8,'Test 1'!B8,'Test 2'!B8,'Test 3'!B8,'Test 4'!B8)</f>
-        <v>1.0417997685185185E-3</v>
+        <f>AVERAGE('Test 0'!B2,'Test 1'!B2,'Test 2'!B2,'Test 3'!B2,'Test 4'!B2)</f>
+        <v>1.0053964120370371E-3</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2">
-        <f>AVERAGE('Test 0'!D8,'Test 1'!D8,'Test 2'!D8,'Test 3'!D8,'Test 4'!D8)</f>
-        <v>10</v>
+        <f>AVERAGE('Test 0'!D2,'Test 1'!D2,'Test 2'!D2,'Test 3'!D2,'Test 4'!D2)</f>
+        <v>1E-3</v>
       </c>
       <c r="E8" s="2">
-        <f>AVERAGE('Test 0'!E8,'Test 1'!E8,'Test 2'!E8,'Test 3'!E8,'Test 4'!E8)</f>
+        <f>AVERAGE('Test 0'!E2,'Test 1'!E2,'Test 2'!E2,'Test 3'!E2,'Test 4'!E2)</f>
         <v>122386.8</v>
       </c>
       <c r="F8" s="2">
-        <f>AVERAGE('Test 0'!F8,'Test 1'!F8,'Test 2'!F8,'Test 3'!F8,'Test 4'!F8)</f>
+        <f>AVERAGE('Test 0'!F2,'Test 1'!F2,'Test 2'!F2,'Test 3'!F2,'Test 4'!F2)</f>
         <v>5640.2</v>
       </c>
       <c r="G8" s="2">
-        <f>AVERAGE('Test 0'!G8,'Test 1'!G8,'Test 2'!G8,'Test 3'!G8,'Test 4'!G8)</f>
+        <f>AVERAGE('Test 0'!G2,'Test 1'!G2,'Test 2'!G2,'Test 3'!G2,'Test 4'!G2)</f>
         <v>128027</v>
       </c>
       <c r="H8" s="2">
-        <f>AVERAGE('Test 0'!H8,'Test 1'!H8,'Test 2'!H8,'Test 3'!H8,'Test 4'!H8)</f>
-        <v>211995.6</v>
+        <f>AVERAGE('Test 0'!H2,'Test 1'!H2,'Test 2'!H2,'Test 3'!H2,'Test 4'!H2)</f>
+        <v>214765.8</v>
       </c>
       <c r="I8" s="2">
-        <f>AVERAGE('Test 0'!I8,'Test 1'!I8,'Test 2'!I8,'Test 3'!I8,'Test 4'!I8)</f>
-        <v>122365.6</v>
+        <f>AVERAGE('Test 0'!I2,'Test 1'!I2,'Test 2'!I2,'Test 3'!I2,'Test 4'!I2)</f>
+        <v>121443.2</v>
       </c>
       <c r="J8" s="2">
-        <f>AVERAGE('Test 0'!J8,'Test 1'!J8,'Test 2'!J8,'Test 3'!J8,'Test 4'!J8)</f>
-        <v>89630</v>
+        <f>AVERAGE('Test 0'!J2,'Test 1'!J2,'Test 2'!J2,'Test 3'!J2,'Test 4'!J2)</f>
+        <v>93322.6</v>
       </c>
       <c r="K8" s="2">
-        <f>AVERAGE('Test 0'!K8,'Test 1'!K8,'Test 2'!K8,'Test 3'!K8,'Test 4'!K8)</f>
-        <v>3749.4</v>
+        <f>AVERAGE('Test 0'!K2,'Test 1'!K2,'Test 2'!K2,'Test 3'!K2,'Test 4'!K2)</f>
+        <v>979.2</v>
       </c>
       <c r="L8" s="2">
-        <f>AVERAGE('Test 0'!L8,'Test 1'!L8,'Test 2'!L8,'Test 3'!L8,'Test 4'!L8)</f>
-        <v>3728.2</v>
+        <f>AVERAGE('Test 0'!L2,'Test 1'!L2,'Test 2'!L2,'Test 3'!L2,'Test 4'!L2)</f>
+        <v>35.6</v>
       </c>
       <c r="M8" s="2">
-        <f>AVERAGE('Test 0'!M8,'Test 1'!M8,'Test 2'!M8,'Test 3'!M8,'Test 4'!M8)</f>
-        <v>21.2</v>
+        <f>AVERAGE('Test 0'!M2,'Test 1'!M2,'Test 2'!M2,'Test 3'!M2,'Test 4'!M2)</f>
+        <v>943.6</v>
       </c>
       <c r="N8" s="2">
-        <f>AVERAGE('Test 0'!N8,'Test 1'!N8,'Test 2'!N8,'Test 3'!N8,'Test 4'!N8)</f>
-        <v>0.98213400078796698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <f>AVERAGE('Test 0'!B9,'Test 1'!B9,'Test 2'!B9,'Test 3'!B9,'Test 4'!B9)</f>
-        <v>9.8525462962962954E-4</v>
-      </c>
-      <c r="C9" t="s">
+        <f>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)*100</f>
+        <v>99.439732091126061</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)</f>
+        <v>99.596967451696045</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!P2)</f>
+        <v>99.229024486320995</v>
+      </c>
+      <c r="Q8">
+        <f>AVERAGE('Test 0'!Q2,'Test 1'!Q2,'Test 2'!Q2,'Test 3'!Q2,'Test 4'!Q2)</f>
+        <v>99.970852618369875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <f>AVERAGE('Test 0'!B3,'Test 1'!B3,'Test 2'!B3,'Test 3'!B3,'Test 4'!B3)</f>
+        <v>9.5875578703703704E-4</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <f>AVERAGE('Test 0'!D9,'Test 1'!D9,'Test 2'!D9,'Test 3'!D9,'Test 4'!D9)</f>
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <f>AVERAGE('Test 0'!E9,'Test 1'!E9,'Test 2'!E9,'Test 3'!E9,'Test 4'!E9)</f>
+      <c r="D9" s="9">
+        <f>AVERAGE('Test 0'!D3,'Test 1'!D3,'Test 2'!D3,'Test 3'!D3,'Test 4'!D3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="9">
+        <f>AVERAGE('Test 0'!E3,'Test 1'!E3,'Test 2'!E3,'Test 3'!E3,'Test 4'!E3)</f>
         <v>122386.8</v>
       </c>
-      <c r="F9" s="2">
-        <f>AVERAGE('Test 0'!F9,'Test 1'!F9,'Test 2'!F9,'Test 3'!F9,'Test 4'!F9)</f>
+      <c r="F9" s="9">
+        <f>AVERAGE('Test 0'!F3,'Test 1'!F3,'Test 2'!F3,'Test 3'!F3,'Test 4'!F3)</f>
         <v>5640.2</v>
       </c>
-      <c r="G9" s="2">
-        <f>AVERAGE('Test 0'!G9,'Test 1'!G9,'Test 2'!G9,'Test 3'!G9,'Test 4'!G9)</f>
-        <v>128027</v>
-      </c>
-      <c r="H9" s="2">
-        <f>AVERAGE('Test 0'!H9,'Test 1'!H9,'Test 2'!H9,'Test 3'!H9,'Test 4'!H9)</f>
-        <v>211876.8</v>
-      </c>
-      <c r="I9" s="2">
-        <f>AVERAGE('Test 0'!I9,'Test 1'!I9,'Test 2'!I9,'Test 3'!I9,'Test 4'!I9)</f>
-        <v>122367.8</v>
-      </c>
-      <c r="J9" s="2">
-        <f>AVERAGE('Test 0'!J9,'Test 1'!J9,'Test 2'!J9,'Test 3'!J9,'Test 4'!J9)</f>
-        <v>89509</v>
-      </c>
-      <c r="K9" s="2">
-        <f>AVERAGE('Test 0'!K9,'Test 1'!K9,'Test 2'!K9,'Test 3'!K9,'Test 4'!K9)</f>
-        <v>3868.2</v>
-      </c>
-      <c r="L9" s="2">
-        <f>AVERAGE('Test 0'!L9,'Test 1'!L9,'Test 2'!L9,'Test 3'!L9,'Test 4'!L9)</f>
-        <v>3849.2</v>
-      </c>
-      <c r="M9" s="2">
-        <f>AVERAGE('Test 0'!M9,'Test 1'!M9,'Test 2'!M9,'Test 3'!M9,'Test 4'!M9)</f>
-        <v>19</v>
+      <c r="G9" s="9">
+        <f>AVERAGE('Test 0'!G3,'Test 1'!G3,'Test 2'!G3,'Test 3'!G3,'Test 4'!G3)</f>
+        <v>128027</v>
+      </c>
+      <c r="H9" s="9">
+        <f>AVERAGE('Test 0'!H3,'Test 1'!H3,'Test 2'!H3,'Test 3'!H3,'Test 4'!H3)</f>
+        <v>215092.8</v>
+      </c>
+      <c r="I9" s="9">
+        <f>AVERAGE('Test 0'!I3,'Test 1'!I3,'Test 2'!I3,'Test 3'!I3,'Test 4'!I3)</f>
+        <v>121770.6</v>
+      </c>
+      <c r="J9" s="9">
+        <f>AVERAGE('Test 0'!J3,'Test 1'!J3,'Test 2'!J3,'Test 3'!J3,'Test 4'!J3)</f>
+        <v>93322.2</v>
+      </c>
+      <c r="K9" s="9">
+        <f>AVERAGE('Test 0'!K3,'Test 1'!K3,'Test 2'!K3,'Test 3'!K3,'Test 4'!K3)</f>
+        <v>652.20000000000005</v>
+      </c>
+      <c r="L9" s="9">
+        <f>AVERAGE('Test 0'!L3,'Test 1'!L3,'Test 2'!L3,'Test 3'!L3,'Test 4'!L3)</f>
+        <v>36</v>
+      </c>
+      <c r="M9" s="9">
+        <f>AVERAGE('Test 0'!M3,'Test 1'!M3,'Test 2'!M3,'Test 3'!M3,'Test 4'!M3)</f>
+        <v>616.20000000000005</v>
       </c>
       <c r="N9" s="2">
-        <f>AVERAGE('Test 0'!N9,'Test 1'!N9,'Test 2'!N9,'Test 3'!N9,'Test 4'!N9)</f>
-        <v>0.98199842406544757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)*100</f>
+        <v>99.632320563628269</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE('Test 0'!O3,'Test 1'!O3,'Test 2'!O3,'Test 3'!O3,'Test 4'!O3)</f>
+        <v>99.732129426396256</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE('Test 0'!P3,'Test 1'!P3,'Test 2'!P3,'Test 3'!P3,'Test 4'!P3)</f>
+        <v>99.496527123168548</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGE('Test 0'!Q3,'Test 1'!Q3,'Test 2'!Q3,'Test 3'!Q3,'Test 4'!Q3)</f>
+        <v>99.970559593656034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
-        <f>AVERAGE('Test 0'!B10,'Test 1'!B10,'Test 2'!B10,'Test 3'!B10,'Test 4'!B10)</f>
-        <v>8.9264467592592585E-4</v>
+        <f>AVERAGE('Test 0'!B4,'Test 1'!B4,'Test 2'!B4,'Test 3'!B4,'Test 4'!B4)</f>
+        <v>9.6283275462962956E-4</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2">
-        <f>AVERAGE('Test 0'!D10,'Test 1'!D10,'Test 2'!D10,'Test 3'!D10,'Test 4'!D10)</f>
-        <v>10</v>
+        <f>AVERAGE('Test 0'!D4,'Test 1'!D4,'Test 2'!D4,'Test 3'!D4,'Test 4'!D4)</f>
+        <v>1E-3</v>
       </c>
       <c r="E10" s="2">
-        <f>AVERAGE('Test 0'!E10,'Test 1'!E10,'Test 2'!E10,'Test 3'!E10,'Test 4'!E10)</f>
+        <f>AVERAGE('Test 0'!E4,'Test 1'!E4,'Test 2'!E4,'Test 3'!E4,'Test 4'!E4)</f>
         <v>122386.8</v>
       </c>
       <c r="F10" s="2">
-        <f>AVERAGE('Test 0'!F10,'Test 1'!F10,'Test 2'!F10,'Test 3'!F10,'Test 4'!F10)</f>
+        <f>AVERAGE('Test 0'!F4,'Test 1'!F4,'Test 2'!F4,'Test 3'!F4,'Test 4'!F4)</f>
         <v>5640.2</v>
       </c>
       <c r="G10" s="2">
-        <f>AVERAGE('Test 0'!G10,'Test 1'!G10,'Test 2'!G10,'Test 3'!G10,'Test 4'!G10)</f>
+        <f>AVERAGE('Test 0'!G4,'Test 1'!G4,'Test 2'!G4,'Test 3'!G4,'Test 4'!G4)</f>
         <v>128027</v>
       </c>
       <c r="H10" s="2">
-        <f>AVERAGE('Test 0'!H10,'Test 1'!H10,'Test 2'!H10,'Test 3'!H10,'Test 4'!H10)</f>
-        <v>211247</v>
+        <f>AVERAGE('Test 0'!H4,'Test 1'!H4,'Test 2'!H4,'Test 3'!H4,'Test 4'!H4)</f>
+        <v>215191.4</v>
       </c>
       <c r="I10" s="2">
-        <f>AVERAGE('Test 0'!I10,'Test 1'!I10,'Test 2'!I10,'Test 3'!I10,'Test 4'!I10)</f>
-        <v>122368.6</v>
+        <f>AVERAGE('Test 0'!I4,'Test 1'!I4,'Test 2'!I4,'Test 3'!I4,'Test 4'!I4)</f>
+        <v>121902.39999999999</v>
       </c>
       <c r="J10" s="2">
-        <f>AVERAGE('Test 0'!J10,'Test 1'!J10,'Test 2'!J10,'Test 3'!J10,'Test 4'!J10)</f>
-        <v>88878.399999999994</v>
+        <f>AVERAGE('Test 0'!J4,'Test 1'!J4,'Test 2'!J4,'Test 3'!J4,'Test 4'!J4)</f>
+        <v>93289</v>
       </c>
       <c r="K10" s="2">
-        <f>AVERAGE('Test 0'!K10,'Test 1'!K10,'Test 2'!K10,'Test 3'!K10,'Test 4'!K10)</f>
-        <v>4498</v>
+        <f>AVERAGE('Test 0'!K4,'Test 1'!K4,'Test 2'!K4,'Test 3'!K4,'Test 4'!K4)</f>
+        <v>553.6</v>
       </c>
       <c r="L10" s="2">
-        <f>AVERAGE('Test 0'!L10,'Test 1'!L10,'Test 2'!L10,'Test 3'!L10,'Test 4'!L10)</f>
-        <v>4479.8</v>
+        <f>AVERAGE('Test 0'!L4,'Test 1'!L4,'Test 2'!L4,'Test 3'!L4,'Test 4'!L4)</f>
+        <v>69.2</v>
       </c>
       <c r="M10" s="2">
-        <f>AVERAGE('Test 0'!M10,'Test 1'!M10,'Test 2'!M10,'Test 3'!M10,'Test 4'!M10)</f>
-        <v>18.2</v>
+        <f>AVERAGE('Test 0'!M4,'Test 1'!M4,'Test 2'!M4,'Test 3'!M4,'Test 4'!M4)</f>
+        <v>484.4</v>
       </c>
       <c r="N10" s="2">
-        <f>AVERAGE('Test 0'!N10,'Test 1'!N10,'Test 2'!N10,'Test 3'!N10,'Test 4'!N10)</f>
-        <v>0.97897170270458123</v>
-      </c>
+        <f>AVERAGE('Test 0'!N4,'Test 1'!N4,'Test 2'!N4,'Test 3'!N4,'Test 4'!N4)*100</f>
+        <v>99.687825905582926</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE('Test 0'!O4,'Test 1'!O4,'Test 2'!O4,'Test 3'!O4,'Test 4'!O4)</f>
+        <v>99.772922895973778</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE('Test 0'!P4,'Test 1'!P4,'Test 2'!P4,'Test 3'!P4,'Test 4'!P4)</f>
+        <v>99.604197584909031</v>
+      </c>
+      <c r="Q10">
+        <f>AVERAGE('Test 0'!Q4,'Test 1'!Q4,'Test 2'!Q4,'Test 3'!Q4,'Test 4'!Q4)</f>
+        <v>99.94339493961337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J12" s="10"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
@@ -3335,5 +4277,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>